--- a/Ganadería/17.4.xlsx
+++ b/Ganadería/17.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F879C0B0-BDB7-4763-988D-658700C69E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3D9431-30F0-41FB-A579-8F539B392B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B754C93E-7492-4A28-9EBB-406E08D4F5F3}"/>
+    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{B754C93E-7492-4A28-9EBB-406E08D4F5F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Produccion tonelada acumulada" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
   <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,9 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
@@ -752,7 +754,9 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
